--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A15B0EA-93B2-F449-AB99-A3F7BA081A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058CD96-7FD1-9744-9F29-43ECE108E009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{EB840824-80A5-E041-9E6D-2E874E21028F}"/>
+    <workbookView xWindow="260" yWindow="860" windowWidth="27240" windowHeight="16040" xr2:uid="{EB840824-80A5-E041-9E6D-2E874E21028F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Question</t>
   </si>
@@ -103,22 +103,6 @@
 •  Were you ever called an insulting and derogatory term because of your race or ethnicity?</t>
   </si>
   <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic,
-Did you talk to your children about challenges they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic,
-Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
-    <t>Since the coronavirus (COVID-19) pandemic,
-Did you talk to your children about challenges they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
-    <t>Since the coronavirus (COVID-19) pandemic,
-Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
     <t>Instructions: In these next set of questions, we would like to know…</t>
   </si>
   <si>
@@ -134,8 +118,19 @@
 Race in America 2019: Public has negative views of the country’s racial progress; more than half say Trump has made race relations worse. Washington, DC: Pew Research Center.</t>
   </si>
   <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic,
+•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic,
+•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
+  </si>
+  <si>
     <t>Current
-21</t>
+21, 23, 25, 27, 31, 33, 35, 37, 39</t>
   </si>
 </sst>
 </file>
@@ -506,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B969F151-3155-EA4D-8E6D-899E9EE8899B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +515,7 @@
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,17 +528,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -551,13 +549,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -565,13 +563,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -579,13 +577,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -593,66 +591,38 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058CD96-7FD1-9744-9F29-43ECE108E009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54EE96-EB34-6E4F-AE35-651FAA9523B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="860" windowWidth="27240" windowHeight="16040" xr2:uid="{EB840824-80A5-E041-9E6D-2E874E21028F}"/>
+    <workbookView xWindow="540" yWindow="1420" windowWidth="27240" windowHeight="16040" xr2:uid="{EB840824-80A5-E041-9E6D-2E874E21028F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -103,9 +103,6 @@
 •  Were you ever called an insulting and derogatory term because of your race or ethnicity?</t>
   </si>
   <si>
-    <t>Instructions: In these next set of questions, we would like to know…</t>
-  </si>
-  <si>
     <t>Modified by RAPID Team and RISER Team 
 Development and reliability of a telephone-administered perceived racism scale (TPRS): A tool for epidemiological use. Ethnicity &amp; Disease, 11, 251–262.</t>
   </si>
@@ -118,9 +115,6 @@
 Race in America 2019: Public has negative views of the country’s racial progress; more than half say Trump has made race relations worse. Washington, DC: Pew Research Center.</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
@@ -129,15 +123,26 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>Current
-21, 23, 25, 27, 31, 33, 35, 37, 39</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2886583/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2643465/</t>
+  </si>
+  <si>
+    <t>https://www.pewsocialtrends.org/2019/04/09/race-in-america-2019/</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +159,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,19 +189,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,18 +522,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B969F151-3155-EA4D-8E6D-899E9EE8899B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.5" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="71.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -526,107 +548,124 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="372" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="372" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="372" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5235A476-714B-2D46-8849-96D6F25542D9}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9ECA79AC-FFD2-6341-9B7A-100B7EE18957}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{FC5DE1CF-99B2-B74D-8EA5-1D07DDBAC214}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{BF1EBFBC-C25C-0241-98F4-3A25B6F40520}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{094BC6CB-5F3B-CA45-A541-1EBB02931FFD}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{E9EE4044-6662-4D41-B581-3F030D8C8238}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54EE96-EB34-6E4F-AE35-651FAA9523B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F43836-B01F-334D-BFE1-3DD713AEAA27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1420" windowWidth="27240" windowHeight="16040" xr2:uid="{EB840824-80A5-E041-9E6D-2E874E21028F}"/>
+    <workbookView xWindow="8420" yWindow="560" windowWidth="27240" windowHeight="16040" xr2:uid="{EB840824-80A5-E041-9E6D-2E874E21028F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <t>https://www.pewsocialtrends.org/2019/04/09/race-in-america-2019/</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39</t>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43</t>
   </si>
 </sst>
 </file>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B969F151-3155-EA4D-8E6D-899E9EE8899B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806F041-1BBD-DC4C-8D4A-F08B335FE405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A28C0-47C6-8740-B959-656F9A91BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40040" yWindow="-1080" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12780" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59</t>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A28C0-47C6-8740-B959-656F9A91BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2660C22-217B-E744-BF97-4B2CA103F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12780" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="500" windowWidth="12780" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63</t>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2660C22-217B-E744-BF97-4B2CA103F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{889C0AED-7A63-2440-9E5B-12B3D3A3FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="500" windowWidth="12780" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="12780" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67</t>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{889C0AED-7A63-2440-9E5B-12B3D3A3FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFAD976E-C3EA-064D-AC26-E6B5317FF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="12780" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="16780" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -157,7 +157,10 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75</t>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83, 87</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="83" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1444,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
@@ -1495,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,7 +1532,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFAD976E-C3EA-064D-AC26-E6B5317FF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D86B0C84-7451-C743-BE0E-0A85C6E878D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="16780" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,10 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83, 87</t>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83, 87, 89</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83 , 89</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D86B0C84-7451-C743-BE0E-0A85C6E878D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFF4E03-5AB0-7F4B-B5E2-D525D43CF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="16780" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="500" windowWidth="16780" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t xml:space="preserve">Dates Used </t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -69,6 +80,9 @@
       </rPr>
       <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2886583/</t>
     </r>
+  </si>
+  <si>
+    <t>08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/01/2020-12/03/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021 03/31/2021-04/02/2021 04/28/2021-05/01/2021 05/25/2021-05/28/2021 06/23/2021-06/25/2021 07/21/2021-07/23/2021 08/04/2021-08/06/2021 09/15/2021-09/17/2021 11/10/2021-11/16/2021 12/08/2021-12/14/2021 01/11/2022-01/18/2022 01/03/2022-01/24/2022</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -99,7 +113,7 @@
   </si>
   <si>
     <t>•  Yes
-•  No</t>
+•  No                                                    • Not applicable</t>
   </si>
   <si>
     <t>Modified by RAPID Team and RISER Team 
@@ -133,6 +147,13 @@
 •  Were you ever called an insulting and derogatory term because of your race or ethnicity?</t>
   </si>
   <si>
+    <t>•  Yes
+•  No</t>
+  </si>
+  <si>
+    <t>08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/01/2020-12/03/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021 03/31/2021-04/02/2021 04/28/2021-05/01/2021 05/25/2021-05/28/2021 06/23/2021-06/25/2021 07/21/2021-07/23/2021 08/04/2021-08/06/2021 09/15/2021-09/17/2021 11/10/2021-11/16/2021 12/08/2021-12/14/2021 01/11/2022-01/18/2022 01/03/2022-01/24/2022   93</t>
+  </si>
+  <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
@@ -157,17 +178,63 @@
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83, 87, 89</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63, 67, 69, 75, 83 , 89</t>
+    <t>Prior to the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) under the age of 6 years. 
+• Getting poor care and education
+• Being mistreated by adults
+• Getting stopped in a white neighborhood
+• Being punished more harshly than others
+• Being discouraged from trying new things
+• Being considered less attractive
+• Having fewer choices in life
+• Being excluded from events or groups
+• Being treated unfairly by other children</t>
+  </si>
+  <si>
+    <t>• Never 
+• Rarely 
+• Some of the time
+• Most of the time                             • Not applicable</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the past month, please indicate how often you were concerned about the following regarding your child(ren) under the age of 6 years.
+• Getting poor care and education
+• Being mistreated by adults
+• Getting stopped in a white neighborhood
+• Being punished more harshly than others
+• Being discouraged from trying new things
+• Being considered less attractive
+• Having fewer choices in life
+• Being excluded from events or groups
+• Being treated unfairly by other children</t>
+  </si>
+  <si>
+    <t>Please indicate whether you have experienced any of the following in the past month.
+• Did you ever receive service from someone such as a plumber or car mechanic that was worse than what other people get because of your race or ethnicity?
+• Were you ever denied service because of your race or ethnicity
+• Were you ever unfairly stopped, searched, questioned, physically threatened, or abused by the police because of your race or ethnicity?
+• Were you ever unfairly fired because of your race or ethnicity?
+• For unfair reasons, were you ever not hired for a job because of your race or ethnicity?
+• Were you ever unfairly denied a promotion because of your race or ethnicity?
+• Were you ever unfairly discouraged by a teacher or advisor from continuing your education because of your race or ethnicity?
+• Were you ever unfairly prevented from moving into a neighborhood because the landlord or relator refused to sell or rent you a house or apartment because of your race or ethnicity?
+• DId you ever move into a neighborhood where neighbors made life difficult for you or your family because of your race or ethnicity?
+•  Were you ever unfairly denied a bank loan because of your race or ethnicity?
+•  Were you ever denied medical service because of your race or ethnicity?
+•  Were you ever called an insulting and derogatory term because of your race or ethnicity?</t>
+  </si>
+  <si>
+    <t>In the past month, 
+• Have you talked to your children about challenges they may face because of their race or ethnicity?                                                                                                                                      • Have you talked to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -228,14 +295,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1400,23 +1464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="71.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,11 +1493,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="362.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1446,13 +1510,13 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="362.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1463,98 +1527,145 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="362.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="378">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="378">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="7" spans="1:5" ht="362.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="189">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="173.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="346.5">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="157.5">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1564,6 +1675,10 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{BE036D44-E583-4D5D-B289-E8C269064AE3}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{837B76EB-BFE0-42BF-895C-36231F3A7DD3}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{211EA49A-A173-484D-9E20-411CC981F6E3}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{7410D162-399F-454C-B441-3F975AE53672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh0ffU9ESz+ZtTOgYdTt99iSye6jQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjRrKKZ4VHqMCjRV/BC3Yl/DbqPJA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -261,7 +261,7 @@
     </r>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate whether you have experienced any of the following in the past month.

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -261,7 +261,7 @@
     </r>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate whether you have experienced any of the following in the past month.

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjRrKKZ4VHqMCjRV/BC3Yl/DbqPJA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CLpY9i6OlAU+gg9RCvChbxYX0cJ0a32aDrDGmMpsrcE="/>
     </ext>
   </extLst>
 </workbook>
@@ -261,7 +261,7 @@
     </r>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate whether you have experienced any of the following in the past month.

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -261,7 +261,7 @@
     </r>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate whether you have experienced any of the following in the past month.

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -261,7 +261,7 @@
     </r>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate whether you have experienced any of the following in the past month.

--- a/_site/Data/RISER.xlsx
+++ b/_site/Data/RISER.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CLpY9i6OlAU+gg9RCvChbxYX0cJ0a32aDrDGmMpsrcE="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhjxDMmfDTwuLMTOPUfMYlxaCT/wQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Question</t>
   </si>
@@ -221,7 +221,8 @@
     <t>• Never 
 • Rarely 
 • Some of the time
-• Most of the time                                   • Not applicable</t>
+• Most of the time                                   
+• Not applicable</t>
   </si>
   <si>
     <r>
@@ -238,6 +239,60 @@
     <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022</t>
   </si>
   <si>
+    <t>Are you and all of your child(ren) of the same race/ethnicity?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Do not wish to disclose</t>
+  </si>
+  <si>
+    <t>11/02/2023-11/09/2023</t>
+  </si>
+  <si>
+    <t>Are all of your children under the age of 6 years of the same race/ethnicity?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No 
+• Do not wish to disclose</t>
+  </si>
+  <si>
+    <t>What is the race/ethnicity of your oldest child under the age of 6 years? Select all that apply.</t>
+  </si>
+  <si>
+    <t>• White (e.g., German, Irish, English, Italian)
+• Hispanic, Latine, or Spanish origin (e.g., Mexican/Mexican American, Puerto Rican, Cuban, Dominican, Salvadoran, Colombian)
+• Black or African American (e.g., African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian) 
+• Asian (e.g., Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese)
+• American Indian or Alaska Native (e.g., Navajo Nation, Blackfeet Tribe, Muscogee (Creek) Nation, Mayan, Doyon, Native Village of Barrow Inupiat Traditional Government)
+• Native Hawaiian or Other Pacific Islander (e.g., Native Hawaiian, Samoan, Guamanian or Chamorro, Tongan, Fijian, Marshallese)
+• Middle Eastern or North African (e.g., Lebanese, Egyptian)
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>What is the race/ethnicity of your second oldest child under the age of 6 years? Select all that apply.</t>
+  </si>
+  <si>
+    <t>• White (e.g., German, Irish, English, Italian)
+• Hispanic, Latine, or Spanish origin (e.g., Mexican/Mexican American, Puerto Rican, Cuban, Dominican, Salvadoran, Colombian)
+• Black or African American (e.g., African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian)
+• Asian (e.g., Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese)
+• American Indian or Alaska Native (e.g., Navajo Nation, Blackfeet Tribe, Muscogee (Creek) Nation, Mayan, Doyon, Native Village of Barrow Inupiat Traditional Government)
+• Native Hawaiian or Other Pacific Islander (e.g., Native Hawaiian, Samoan, Guamanian or Chamorro, Tongan, Fijian, Marshallese)
+• Middle Eastern or North African (e.g., Lebanese, Egyptian)
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>What is the race/ethnicity of your third oldest child under the age of 6 years? Select all that apply.</t>
+  </si>
+  <si>
+    <t>What is the race/ethnicity of your fourth oldest child under the age of 6 years? Select all that apply.</t>
+  </si>
+  <si>
+    <t>What is the race/ethnicity of your fifth oldest child under the age of 6 years? Select all that apply.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> In the past month, please indicate how often you were concerned about the following regarding your child(ren) under the age of 6 years.
 • Getting poor care and education
 • Being mistreated by adults
@@ -248,6 +303,12 @@
 • Having fewer choices in life
 • Being excluded from events or groups
 • Being treated unfairly by other children</t>
+  </si>
+  <si>
+    <t>• Never 
+• Rarely 
+• Some of the time
+• Most of the time                                   • Not applicable</t>
   </si>
   <si>
     <r>
@@ -261,7 +322,7 @@
     </r>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 09/06/2023-09/13/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/15/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 09/06/2023-09/13/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate whether you have experienced any of the following in the past month.
@@ -907,18 +968,14 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
@@ -949,14 +1006,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
@@ -987,14 +1040,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1021,11 +1070,17 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1049,11 +1104,17 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1077,11 +1138,17 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1105,11 +1172,17 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1133,11 +1206,21 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1161,11 +1244,21 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1189,11 +1282,21 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -28712,6 +28815,202 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="5"/>
+      <c r="B1002" s="5"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
+      <c r="E1002" s="5"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="5"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="5"/>
+      <c r="B1004" s="5"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="5"/>
+      <c r="B1005" s="5"/>
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="5"/>
+      <c r="B1006" s="5"/>
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="5"/>
+      <c r="E1006" s="5"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="A1007" s="5"/>
+      <c r="B1007" s="5"/>
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="5"/>
+      <c r="E1007" s="5"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
@@ -28721,9 +29020,9 @@
     <hyperlink r:id="rId5" ref="D6"/>
     <hyperlink r:id="rId6" ref="D7"/>
     <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId8" ref="D16"/>
+    <hyperlink r:id="rId9" ref="D17"/>
+    <hyperlink r:id="rId10" ref="D18"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
